--- a/INFO_636/Assignment_6B/Supporting Docs/6BVannoniEstimations.xlsx
+++ b/INFO_636/Assignment_6B/Supporting Docs/6BVannoniEstimations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1500" windowWidth="15360" windowHeight="9015" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="1500" windowWidth="15360" windowHeight="9015"/>
   </bookViews>
   <sheets>
     <sheet name="C39" sheetId="5" r:id="rId1"/>
@@ -67,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
   <si>
     <t>Program Number I</t>
   </si>
@@ -369,9 +369,6 @@
     <t>2B</t>
   </si>
   <si>
-    <t>1B</t>
-  </si>
-  <si>
     <t>3B</t>
   </si>
   <si>
@@ -495,48 +492,65 @@
     <t>D</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>Hold ArrayList&lt;ArrayList&lt;String&gt; instead of ArrayList&lt;String&gt;</t>
-  </si>
-  <si>
-    <t>Add support for K</t>
-  </si>
-  <si>
-    <t>Modify FileReader</t>
-  </si>
-  <si>
-    <t>Modify FileWriter</t>
-  </si>
-  <si>
-    <t>I</t>
-  </si>
-  <si>
-    <t>None</t>
-  </si>
-  <si>
-    <t>MainFrame - getNumbersInput</t>
-  </si>
-  <si>
-    <t>FileReader - getFileContents</t>
-  </si>
-  <si>
-    <t>FileWriter - setFileContents</t>
-  </si>
-  <si>
     <t>6B</t>
+  </si>
+  <si>
+    <t>5B</t>
+  </si>
+  <si>
+    <t>Assignment 5B</t>
+  </si>
+  <si>
+    <t>displayArrayListSingleRow</t>
+  </si>
+  <si>
+    <t>getJListAsArrayList</t>
+  </si>
+  <si>
+    <t>getJListAsArrayListOfArrayList</t>
+  </si>
+  <si>
+    <t>displaySingleRow</t>
+  </si>
+  <si>
+    <t>removeSingleRow</t>
+  </si>
+  <si>
+    <t>setFileContentsWithArray</t>
+  </si>
+  <si>
+    <t>setFileContentsWithList</t>
+  </si>
+  <si>
+    <t>RegressionCalculation</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Add regression calculations to Main</t>
+  </si>
+  <si>
+    <t>Add functionality to convert Jlist to ArrayList&lt;ArrayList&lt;String&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Add regression calculation output to GUI</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>MainFrame - getJListAsArrayList</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.00000000000000"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -715,7 +729,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -763,9 +777,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -782,9 +793,6 @@
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -956,8 +964,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1369,40 +1389,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AU58"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" style="26" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" style="26" customWidth="1"/>
     <col min="2" max="6" width="9.140625" style="26"/>
     <col min="7" max="7" width="12.42578125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8" style="80" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8" style="78" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="47" width="9.140625" style="25"/>
     <col min="48" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.75">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="97" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
-      <c r="I1" s="99"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="27" t="s">
         <v>45</v>
       </c>
       <c r="B2" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="29"/>
       <c r="D2" s="29"/>
@@ -1411,8 +1431,8 @@
       <c r="G2" s="30" t="s">
         <v>46</v>
       </c>
-      <c r="I2" s="31">
-        <v>40240</v>
+      <c r="I2" s="104">
+        <v>40242</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -1429,41 +1449,41 @@
       <c r="G3" s="30" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="69" t="s">
-        <v>152</v>
+      <c r="I3" s="67" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="73"/>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="73"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="71"/>
     </row>
     <row r="5" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A5" s="100" t="s">
+      <c r="A5" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="100"/>
-      <c r="C5" s="100"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="33" t="s">
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="33" t="s">
+      <c r="I5" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="35"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="35"/>
-      <c r="N5" s="35"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
     </row>
     <row r="6" spans="1:22" ht="12.75" customHeight="1">
       <c r="A6" s="30" t="s">
@@ -1474,18 +1494,18 @@
       <c r="D6" s="27"/>
       <c r="E6" s="27"/>
       <c r="F6" s="27"/>
-      <c r="G6" s="36">
+      <c r="G6" s="103">
         <v>324</v>
       </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="36">
+      <c r="H6" s="80"/>
+      <c r="I6" s="35">
         <v>324</v>
       </c>
-      <c r="J6" s="37"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:22" ht="12.75" customHeight="1">
       <c r="A7" s="30" t="s">
@@ -1496,16 +1516,16 @@
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
-      <c r="G7" s="38">
+      <c r="G7" s="101">
         <v>3</v>
       </c>
-      <c r="H7" s="82"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="35"/>
-      <c r="L7" s="35"/>
-      <c r="M7" s="35"/>
-      <c r="N7" s="35"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:22" ht="12.75" customHeight="1">
       <c r="A8" s="30" t="s">
@@ -1516,177 +1536,167 @@
       <c r="D8" s="27"/>
       <c r="E8" s="27"/>
       <c r="F8" s="27"/>
-      <c r="G8" s="38">
-        <v>12</v>
-      </c>
-      <c r="H8" s="82"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="35"/>
-      <c r="L8" s="35"/>
-      <c r="M8" s="35"/>
-      <c r="N8" s="35"/>
+      <c r="G8" s="101">
+        <v>5</v>
+      </c>
+      <c r="H8" s="80"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A9" s="74"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="77"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="35"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="35"/>
-      <c r="N9" s="35"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="73"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
       <c r="D10" s="30"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
       <c r="G10" s="30"/>
-      <c r="H10" s="55"/>
+      <c r="H10" s="53"/>
       <c r="I10" s="30"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="96"/>
-      <c r="P10" s="96"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="96"/>
-      <c r="S10" s="96"/>
-      <c r="T10" s="96"/>
-      <c r="U10" s="96"/>
-      <c r="V10" s="42"/>
+      <c r="J10" s="39"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="39"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="94"/>
+      <c r="P10" s="94"/>
+      <c r="Q10" s="94"/>
+      <c r="R10" s="94"/>
+      <c r="S10" s="94"/>
+      <c r="T10" s="94"/>
+      <c r="U10" s="94"/>
+      <c r="V10" s="40"/>
     </row>
     <row r="11" spans="1:22" ht="15.75" customHeight="1">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43" t="s">
+      <c r="B11" s="95"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E11" s="43" t="s">
+      <c r="E11" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="43" t="s">
+      <c r="F11" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="44" t="s">
+      <c r="H11" s="41"/>
+      <c r="I11" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="45"/>
-      <c r="K11" s="45"/>
-    </row>
-    <row r="12" spans="1:22" ht="63.75">
-      <c r="A12" s="86" t="s">
-        <v>143</v>
-      </c>
-      <c r="B12" s="46"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="68" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="68">
+      <c r="J11" s="43"/>
+      <c r="K11" s="43"/>
+    </row>
+    <row r="12" spans="1:22" ht="25.5">
+      <c r="A12" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="E12" s="66">
         <v>1</v>
       </c>
-      <c r="F12" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="46">
-        <v>2</v>
-      </c>
-      <c r="H12" s="45"/>
-      <c r="I12" s="47"/>
-    </row>
-    <row r="13" spans="1:22">
-      <c r="A13" s="46" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="32"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E13" s="69">
+      <c r="F12" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="G12" s="66">
+        <v>5</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:22" ht="51">
+      <c r="A13" s="84" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="67">
         <v>1</v>
       </c>
-      <c r="F13" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="G13" s="32">
-        <v>7</v>
-      </c>
-      <c r="H13" s="45"/>
-      <c r="I13" s="48"/>
-    </row>
-    <row r="14" spans="1:22">
-      <c r="A14" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="B14" s="32"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="E14" s="69">
+      <c r="F13" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="G13" s="67">
+        <v>5</v>
+      </c>
+      <c r="H13" s="43"/>
+      <c r="I13" s="46"/>
+    </row>
+    <row r="14" spans="1:22" ht="38.25">
+      <c r="A14" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="67" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="67">
         <v>1</v>
       </c>
-      <c r="F14" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="G14" s="49">
-        <v>3</v>
-      </c>
-      <c r="H14" s="45"/>
-      <c r="I14" s="48"/>
+      <c r="F14" s="67" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" s="102">
+        <v>5</v>
+      </c>
+      <c r="H14" s="43"/>
+      <c r="I14" s="46"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="46" t="s">
-        <v>146</v>
-      </c>
-      <c r="B15" s="32"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="E15" s="69">
-        <v>1</v>
-      </c>
-      <c r="F15" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="G15" s="49">
-        <v>3</v>
-      </c>
-      <c r="H15" s="45"/>
-      <c r="I15" s="48"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="46"/>
     </row>
     <row r="16" spans="1:22" ht="12.75" customHeight="1">
       <c r="B16" s="30"/>
       <c r="C16" s="30"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="32"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="32"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="31"/>
     </row>
     <row r="17" spans="1:47">
       <c r="A17" s="30" t="s">
@@ -1694,159 +1704,167 @@
       </c>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="30">
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53">
         <f>SUM(G12:G16)</f>
         <v>15</v>
       </c>
-      <c r="H17" s="55"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="30"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="41"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="41"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="41"/>
-      <c r="V17" s="41"/>
-    </row>
-    <row r="18" spans="1:47" s="53" customFormat="1" ht="24">
-      <c r="A18" s="97" t="s">
+      <c r="J17" s="39"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="39"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="39"/>
+      <c r="P17" s="39"/>
+      <c r="Q17" s="39"/>
+      <c r="R17" s="39"/>
+      <c r="S17" s="39"/>
+      <c r="T17" s="39"/>
+      <c r="U17" s="39"/>
+      <c r="V17" s="39"/>
+    </row>
+    <row r="18" spans="1:47" s="51" customFormat="1" ht="24">
+      <c r="A18" s="95" t="s">
         <v>60</v>
       </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="43" t="s">
+      <c r="B18" s="96"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E18" s="43" t="s">
+      <c r="E18" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="F18" s="43" t="s">
+      <c r="F18" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="I18" s="33" t="s">
+      <c r="I18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="51"/>
-      <c r="K18" s="51"/>
-      <c r="L18" s="51"/>
-      <c r="M18" s="51"/>
-      <c r="N18" s="51"/>
-      <c r="O18" s="51"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
-      <c r="S18" s="52"/>
-      <c r="T18" s="52"/>
-      <c r="U18" s="52"/>
-      <c r="V18" s="52"/>
-      <c r="W18" s="52"/>
-      <c r="X18" s="52"/>
-      <c r="Y18" s="52"/>
-      <c r="Z18" s="52"/>
-      <c r="AA18" s="52"/>
-      <c r="AB18" s="52"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="52"/>
-      <c r="AG18" s="52"/>
-      <c r="AH18" s="52"/>
-      <c r="AI18" s="52"/>
-      <c r="AJ18" s="52"/>
-      <c r="AK18" s="52"/>
-      <c r="AL18" s="52"/>
-      <c r="AM18" s="52"/>
-      <c r="AN18" s="52"/>
-      <c r="AO18" s="52"/>
-      <c r="AP18" s="52"/>
-      <c r="AQ18" s="52"/>
-      <c r="AR18" s="52"/>
-      <c r="AS18" s="52"/>
-      <c r="AT18" s="52"/>
-      <c r="AU18" s="52"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49"/>
+      <c r="M18" s="49"/>
+      <c r="N18" s="49"/>
+      <c r="O18" s="49"/>
+      <c r="P18" s="50"/>
+      <c r="Q18" s="50"/>
+      <c r="R18" s="50"/>
+      <c r="S18" s="50"/>
+      <c r="T18" s="50"/>
+      <c r="U18" s="50"/>
+      <c r="V18" s="50"/>
+      <c r="W18" s="50"/>
+      <c r="X18" s="50"/>
+      <c r="Y18" s="50"/>
+      <c r="Z18" s="50"/>
+      <c r="AA18" s="50"/>
+      <c r="AB18" s="50"/>
+      <c r="AC18" s="50"/>
+      <c r="AD18" s="50"/>
+      <c r="AE18" s="50"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+      <c r="AH18" s="50"/>
+      <c r="AI18" s="50"/>
+      <c r="AJ18" s="50"/>
+      <c r="AK18" s="50"/>
+      <c r="AL18" s="50"/>
+      <c r="AM18" s="50"/>
+      <c r="AN18" s="50"/>
+      <c r="AO18" s="50"/>
+      <c r="AP18" s="50"/>
+      <c r="AQ18" s="50"/>
+      <c r="AR18" s="50"/>
+      <c r="AS18" s="50"/>
+      <c r="AT18" s="50"/>
+      <c r="AU18" s="50"/>
     </row>
     <row r="19" spans="1:47">
-      <c r="A19" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="47"/>
+      <c r="A19" s="44" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="66" t="s">
+        <v>152</v>
+      </c>
+      <c r="E19" s="66">
+        <v>8</v>
+      </c>
+      <c r="F19" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="G19" s="66">
+        <v>16</v>
+      </c>
+      <c r="H19" s="53"/>
+      <c r="I19" s="45"/>
     </row>
     <row r="20" spans="1:47">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="69"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="48"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="48"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="46"/>
     </row>
     <row r="21" spans="1:47">
-      <c r="A21" s="32"/>
-      <c r="B21" s="32"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="69"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="48"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="48"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="46"/>
     </row>
     <row r="22" spans="1:47">
-      <c r="A22" s="32"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="32"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="48"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="48"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="46"/>
     </row>
     <row r="23" spans="1:47">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="48"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="67"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="46"/>
     </row>
     <row r="24" spans="1:47">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="48"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="48"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="67"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="53"/>
+      <c r="I24" s="46"/>
     </row>
     <row r="25" spans="1:47" ht="12.75" customHeight="1">
       <c r="A25" s="30" t="s">
@@ -1854,175 +1872,146 @@
       </c>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="30">
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53">
         <f>SUM(G19:G24)</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="55"/>
-      <c r="I25" s="30">
-        <f>SUM(I19:I24)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="41"/>
-      <c r="N25" s="41"/>
-      <c r="O25" s="41"/>
-      <c r="P25" s="54"/>
-      <c r="Q25" s="54"/>
-      <c r="R25" s="54"/>
-      <c r="S25" s="54"/>
-      <c r="T25" s="54"/>
-      <c r="U25" s="54"/>
-      <c r="V25" s="54"/>
+        <v>16</v>
+      </c>
+      <c r="H25" s="53"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39"/>
+      <c r="L25" s="39"/>
+      <c r="M25" s="39"/>
+      <c r="N25" s="39"/>
+      <c r="O25" s="39"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
+      <c r="R25" s="52"/>
+      <c r="S25" s="52"/>
+      <c r="T25" s="52"/>
+      <c r="U25" s="52"/>
+      <c r="V25" s="52"/>
     </row>
     <row r="26" spans="1:47">
-      <c r="A26" s="74"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="74"/>
-      <c r="D26" s="78"/>
-      <c r="E26" s="78"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="74"/>
-      <c r="H26" s="78"/>
-      <c r="I26" s="74"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="41"/>
-      <c r="N26" s="41"/>
-      <c r="O26" s="41"/>
-      <c r="P26" s="45"/>
-      <c r="Q26" s="45"/>
-      <c r="R26" s="45"/>
-      <c r="S26" s="45"/>
-      <c r="T26" s="45"/>
-      <c r="U26" s="45"/>
-      <c r="V26" s="45"/>
+      <c r="A26" s="72"/>
+      <c r="B26" s="72"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="72"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="39"/>
+      <c r="L26" s="39"/>
+      <c r="M26" s="39"/>
+      <c r="N26" s="39"/>
+      <c r="O26" s="39"/>
+      <c r="P26" s="43"/>
+      <c r="Q26" s="43"/>
+      <c r="R26" s="43"/>
+      <c r="S26" s="43"/>
+      <c r="T26" s="43"/>
+      <c r="U26" s="43"/>
+      <c r="V26" s="43"/>
     </row>
     <row r="27" spans="1:47" ht="12.75" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="43" t="s">
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="43" t="s">
+      <c r="E27" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F27" s="43" t="s">
+      <c r="F27" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="G27" s="44" t="s">
+      <c r="G27" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="44" t="s">
+      <c r="H27" s="41"/>
+      <c r="I27" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="41"/>
-      <c r="N27" s="41"/>
-      <c r="O27" s="41"/>
-      <c r="P27" s="45"/>
-      <c r="Q27" s="45"/>
-      <c r="R27" s="45"/>
-      <c r="S27" s="45"/>
-      <c r="T27" s="45"/>
-      <c r="U27" s="45"/>
-      <c r="V27" s="45"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39"/>
+      <c r="L27" s="39"/>
+      <c r="M27" s="39"/>
+      <c r="N27" s="39"/>
+      <c r="O27" s="39"/>
+      <c r="P27" s="43"/>
+      <c r="Q27" s="43"/>
+      <c r="R27" s="43"/>
+      <c r="S27" s="43"/>
+      <c r="T27" s="43"/>
+      <c r="U27" s="43"/>
+      <c r="V27" s="43"/>
     </row>
     <row r="28" spans="1:47">
-      <c r="A28" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="B28" s="46"/>
-      <c r="C28" s="46"/>
-      <c r="D28" s="68" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="68">
+      <c r="A28" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="66">
         <v>1</v>
       </c>
-      <c r="F28" s="68" t="s">
-        <v>142</v>
-      </c>
-      <c r="G28" s="47">
-        <v>2</v>
-      </c>
-      <c r="H28" s="55"/>
-      <c r="I28" s="47">
-        <v>1</v>
-      </c>
-      <c r="J28" s="41"/>
+      <c r="F28" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="66">
+        <v>5</v>
+      </c>
+      <c r="H28" s="53"/>
+      <c r="I28" s="45"/>
+      <c r="J28" s="39"/>
     </row>
     <row r="29" spans="1:47">
-      <c r="A29" s="32" t="s">
-        <v>151</v>
-      </c>
-      <c r="B29" s="32"/>
-      <c r="C29" s="32"/>
-      <c r="D29" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="E29" s="69">
-        <v>1</v>
-      </c>
-      <c r="F29" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="48">
-        <v>2</v>
-      </c>
-      <c r="H29" s="55"/>
-      <c r="I29" s="48">
-        <v>2</v>
-      </c>
-      <c r="J29" s="41"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="53"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="39"/>
     </row>
     <row r="30" spans="1:47">
-      <c r="A30" s="95" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="95"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="69" t="s">
-        <v>64</v>
-      </c>
-      <c r="E30" s="69">
-        <v>1</v>
-      </c>
-      <c r="F30" s="69" t="s">
-        <v>142</v>
-      </c>
-      <c r="G30" s="48">
-        <v>2</v>
-      </c>
-      <c r="H30" s="55"/>
-      <c r="I30" s="48">
-        <v>1</v>
-      </c>
-      <c r="J30" s="41"/>
+      <c r="A30" s="93"/>
+      <c r="B30" s="93"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="53"/>
+      <c r="I30" s="46"/>
+      <c r="J30" s="39"/>
     </row>
     <row r="31" spans="1:47">
-      <c r="A31" s="46"/>
-      <c r="B31" s="46"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="32"/>
-      <c r="E31" s="32"/>
-      <c r="F31" s="32"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="48"/>
-      <c r="J31" s="41"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="53"/>
+      <c r="I31" s="46"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="1:47" ht="12.75" customHeight="1">
       <c r="A32" s="30" t="s">
@@ -2033,44 +2022,44 @@
       <c r="D32" s="30"/>
       <c r="E32" s="30"/>
       <c r="F32" s="30"/>
-      <c r="G32" s="30">
+      <c r="G32" s="53">
         <f>SUM(G28:G31)</f>
-        <v>6</v>
-      </c>
-      <c r="H32" s="55"/>
+        <v>5</v>
+      </c>
+      <c r="H32" s="53"/>
       <c r="I32" s="30">
         <f>SUM(I28:I31)</f>
-        <v>4</v>
-      </c>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="41"/>
-      <c r="N32" s="41"/>
-      <c r="O32" s="41"/>
-      <c r="P32" s="54"/>
-      <c r="Q32" s="54"/>
-      <c r="R32" s="54"/>
-      <c r="S32" s="54"/>
-      <c r="T32" s="54"/>
-      <c r="U32" s="54"/>
-      <c r="V32" s="54"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39"/>
+      <c r="L32" s="39"/>
+      <c r="M32" s="39"/>
+      <c r="N32" s="39"/>
+      <c r="O32" s="39"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
+      <c r="S32" s="52"/>
+      <c r="T32" s="52"/>
+      <c r="U32" s="52"/>
+      <c r="V32" s="52"/>
     </row>
     <row r="33" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A33" s="74"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="74"/>
-      <c r="D33" s="74"/>
-      <c r="E33" s="74"/>
-      <c r="F33" s="74"/>
-      <c r="G33" s="79" t="s">
+      <c r="A33" s="72"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="72"/>
+      <c r="F33" s="72"/>
+      <c r="G33" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="H33" s="78"/>
-      <c r="I33" s="79" t="s">
+      <c r="H33" s="76"/>
+      <c r="I33" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="J33" s="45"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:22" ht="12.75" customHeight="1">
       <c r="A34" s="30" t="s">
@@ -2081,16 +2070,16 @@
       <c r="D34" s="30"/>
       <c r="E34" s="30"/>
       <c r="F34" s="30"/>
-      <c r="G34" s="94">
+      <c r="G34" s="92">
         <f>G17+G25+G8</f>
-        <v>27</v>
-      </c>
-      <c r="H34" s="55"/>
-      <c r="I34" s="87">
+        <v>36</v>
+      </c>
+      <c r="H34" s="53"/>
+      <c r="I34" s="85">
         <f>G17+G25+G8</f>
-        <v>27</v>
-      </c>
-      <c r="J34" s="45"/>
+        <v>36</v>
+      </c>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:22" ht="12.75" customHeight="1">
       <c r="A35" s="30" t="s">
@@ -2098,21 +2087,21 @@
       </c>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
-      <c r="D35" s="56" t="s">
+      <c r="D35" s="54" t="s">
         <v>70</v>
       </c>
       <c r="E35" s="30"/>
       <c r="F35" s="30"/>
-      <c r="G35" s="63">
+      <c r="G35" s="61">
         <f>'Size Estimate Regression'!beta1</f>
-        <v>0.51557377049180331</v>
-      </c>
-      <c r="H35" s="84"/>
-      <c r="I35" s="88">
+        <v>1.2302683194727757</v>
+      </c>
+      <c r="H35" s="82"/>
+      <c r="I35" s="86">
         <f>'Time Estimate Regression'!beta1</f>
-        <v>-2.1278688524590166</v>
-      </c>
-      <c r="J35" s="45"/>
+        <v>5.7693394005962686</v>
+      </c>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" spans="1:22" ht="12.75" customHeight="1">
       <c r="A36" s="30" t="s">
@@ -2120,21 +2109,21 @@
       </c>
       <c r="B36" s="30"/>
       <c r="C36" s="30"/>
-      <c r="D36" s="56" t="s">
+      <c r="D36" s="54" t="s">
         <v>72</v>
       </c>
       <c r="E36" s="30"/>
       <c r="F36" s="30"/>
-      <c r="G36" s="63">
+      <c r="G36" s="61">
         <f>'Size Estimate Regression'!beta0</f>
-        <v>53.286885245901637</v>
-      </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="88">
+        <v>-0.4541817040640197</v>
+      </c>
+      <c r="H36" s="82"/>
+      <c r="I36" s="86">
         <f>'Time Estimate Regression'!beta0</f>
-        <v>618.06557377049182</v>
-      </c>
-      <c r="J36" s="54"/>
+        <v>32.471991212929368</v>
+      </c>
+      <c r="J36" s="52"/>
     </row>
     <row r="37" spans="1:22" ht="12.75" customHeight="1">
       <c r="A37" s="30" t="s">
@@ -2145,13 +2134,13 @@
       <c r="D37" s="30"/>
       <c r="E37" s="30"/>
       <c r="F37" s="30"/>
-      <c r="G37" s="64">
+      <c r="G37" s="62">
         <f>G36+G35*G34</f>
-        <v>67.207377049180323</v>
-      </c>
-      <c r="H37" s="84"/>
-      <c r="I37" s="88"/>
-      <c r="J37" s="65" t="s">
+        <v>43.835477796955907</v>
+      </c>
+      <c r="H37" s="82"/>
+      <c r="I37" s="86"/>
+      <c r="J37" s="63" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2164,13 +2153,13 @@
       <c r="D38" s="30"/>
       <c r="E38" s="30"/>
       <c r="F38" s="30"/>
-      <c r="G38" s="58">
+      <c r="G38" s="56">
         <f>G34+G6-G7-G8+G32</f>
-        <v>342</v>
-      </c>
-      <c r="H38" s="55"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="54"/>
+        <v>357</v>
+      </c>
+      <c r="H38" s="53"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="52"/>
     </row>
     <row r="39" spans="1:22" ht="12.75" customHeight="1">
       <c r="A39" s="30" t="s">
@@ -2181,13 +2170,13 @@
       <c r="D39" s="30"/>
       <c r="E39" s="30"/>
       <c r="F39" s="30"/>
-      <c r="G39" s="48">
+      <c r="G39" s="46">
         <f>SUM(G19:G20)</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="55"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="54"/>
+        <v>16</v>
+      </c>
+      <c r="H39" s="53"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="52"/>
     </row>
     <row r="40" spans="1:22" ht="12.75" customHeight="1">
       <c r="A40" s="30" t="s">
@@ -2198,13 +2187,13 @@
       <c r="D40" s="30"/>
       <c r="E40" s="30"/>
       <c r="F40" s="30"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="93">
+      <c r="G40" s="55"/>
+      <c r="H40" s="53"/>
+      <c r="I40" s="91">
         <f>'Time Estimate Regression'!B24</f>
-        <v>560.61311475409843</v>
-      </c>
-      <c r="J40" s="65" t="s">
+        <v>240.16820963439503</v>
+      </c>
+      <c r="J40" s="63" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2217,16 +2206,16 @@
       <c r="D41" s="30"/>
       <c r="E41" s="30"/>
       <c r="F41" s="30"/>
-      <c r="G41" s="59">
+      <c r="G41" s="57">
         <f>'Size Estimate Regression'!range</f>
-        <v>221.70791831104279</v>
-      </c>
-      <c r="H41" s="55"/>
-      <c r="I41" s="90">
+        <v>24.362308223024637</v>
+      </c>
+      <c r="H41" s="53"/>
+      <c r="I41" s="88">
         <f>'Time Estimate Regression'!range</f>
-        <v>335.80622443728856</v>
-      </c>
-      <c r="J41" s="54"/>
+        <v>175.95129787212977</v>
+      </c>
+      <c r="J41" s="52"/>
     </row>
     <row r="42" spans="1:22" ht="12.75" customHeight="1">
       <c r="A42" s="30" t="s">
@@ -2237,16 +2226,16 @@
       <c r="D42" s="30"/>
       <c r="E42" s="30"/>
       <c r="F42" s="30"/>
-      <c r="G42" s="60">
+      <c r="G42" s="58">
         <f>'Size Estimate Regression'!upi</f>
-        <v>288.91529536022313</v>
-      </c>
-      <c r="H42" s="55"/>
-      <c r="I42" s="90">
+        <v>68.197786019980541</v>
+      </c>
+      <c r="H42" s="53"/>
+      <c r="I42" s="88">
         <f>'Time Estimate Regression'!upi</f>
-        <v>896.41933919138705</v>
-      </c>
-      <c r="J42" s="54"/>
+        <v>416.11950750652477</v>
+      </c>
+      <c r="J42" s="52"/>
     </row>
     <row r="43" spans="1:22" ht="12.75" customHeight="1">
       <c r="A43" s="30" t="s">
@@ -2257,36 +2246,36 @@
       <c r="D43" s="30"/>
       <c r="E43" s="30"/>
       <c r="F43" s="30"/>
-      <c r="G43" s="60">
+      <c r="G43" s="58">
         <f>'Size Estimate Regression'!lpi</f>
-        <v>-154.50054126186245</v>
-      </c>
-      <c r="H43" s="55"/>
-      <c r="I43" s="90">
+        <v>19.473169573931269</v>
+      </c>
+      <c r="H43" s="53"/>
+      <c r="I43" s="88">
         <f>'Time Estimate Regression'!lpi</f>
-        <v>224.80689031680987</v>
-      </c>
-      <c r="J43" s="54"/>
+        <v>64.216911762265255</v>
+      </c>
+      <c r="J43" s="52"/>
     </row>
     <row r="44" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="61">
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="59">
         <f>'Size Estimate Regression'!pi_pct</f>
         <v>0.7</v>
       </c>
-      <c r="H44" s="55"/>
-      <c r="I44" s="91">
+      <c r="H44" s="53"/>
+      <c r="I44" s="89">
         <f>'Time Estimate Regression'!pi_pct</f>
         <v>0.7</v>
       </c>
-      <c r="J44" s="65" t="s">
+      <c r="J44" s="63" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2299,19 +2288,19 @@
       <c r="F45" s="29"/>
       <c r="G45" s="29"/>
       <c r="I45" s="29"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="62"/>
-      <c r="R45" s="62"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
+      <c r="J45" s="60"/>
+      <c r="K45" s="60"/>
+      <c r="L45" s="60"/>
+      <c r="M45" s="60"/>
+      <c r="N45" s="60"/>
+      <c r="O45" s="60"/>
+      <c r="P45" s="60"/>
+      <c r="Q45" s="60"/>
+      <c r="R45" s="60"/>
+      <c r="S45" s="60"/>
+      <c r="T45" s="60"/>
+      <c r="U45" s="60"/>
+      <c r="V45" s="60"/>
     </row>
     <row r="46" spans="1:22">
       <c r="A46" s="29"/>
@@ -2322,19 +2311,19 @@
       <c r="F46" s="29"/>
       <c r="G46" s="29"/>
       <c r="I46" s="29"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="62"/>
-      <c r="N46" s="62"/>
-      <c r="O46" s="62"/>
-      <c r="P46" s="62"/>
-      <c r="Q46" s="62"/>
-      <c r="R46" s="62"/>
-      <c r="S46" s="62"/>
-      <c r="T46" s="62"/>
-      <c r="U46" s="62"/>
-      <c r="V46" s="62"/>
+      <c r="J46" s="60"/>
+      <c r="K46" s="60"/>
+      <c r="L46" s="60"/>
+      <c r="M46" s="60"/>
+      <c r="N46" s="60"/>
+      <c r="O46" s="60"/>
+      <c r="P46" s="60"/>
+      <c r="Q46" s="60"/>
+      <c r="R46" s="60"/>
+      <c r="S46" s="60"/>
+      <c r="T46" s="60"/>
+      <c r="U46" s="60"/>
+      <c r="V46" s="60"/>
     </row>
     <row r="47" spans="1:22" ht="19.5">
       <c r="A47" s="29"/>
@@ -2344,20 +2333,20 @@
       <c r="E47" s="29"/>
       <c r="F47" s="29"/>
       <c r="G47" s="29"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="62"/>
-      <c r="N47" s="62"/>
-      <c r="O47" s="62"/>
-      <c r="P47" s="62"/>
-      <c r="Q47" s="62"/>
-      <c r="R47" s="62"/>
-      <c r="S47" s="62"/>
-      <c r="T47" s="62"/>
-      <c r="U47" s="62"/>
-      <c r="V47" s="62"/>
+      <c r="I47" s="83"/>
+      <c r="J47" s="60"/>
+      <c r="K47" s="60"/>
+      <c r="L47" s="60"/>
+      <c r="M47" s="60"/>
+      <c r="N47" s="60"/>
+      <c r="O47" s="60"/>
+      <c r="P47" s="60"/>
+      <c r="Q47" s="60"/>
+      <c r="R47" s="60"/>
+      <c r="S47" s="60"/>
+      <c r="T47" s="60"/>
+      <c r="U47" s="60"/>
+      <c r="V47" s="60"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="29"/>
@@ -2368,19 +2357,19 @@
       <c r="F48" s="29"/>
       <c r="G48" s="29"/>
       <c r="I48" s="29"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="62"/>
-      <c r="N48" s="62"/>
-      <c r="O48" s="62"/>
-      <c r="P48" s="62"/>
-      <c r="Q48" s="62"/>
-      <c r="R48" s="62"/>
-      <c r="S48" s="62"/>
-      <c r="T48" s="62"/>
-      <c r="U48" s="62"/>
-      <c r="V48" s="62"/>
+      <c r="J48" s="60"/>
+      <c r="K48" s="60"/>
+      <c r="L48" s="60"/>
+      <c r="M48" s="60"/>
+      <c r="N48" s="60"/>
+      <c r="O48" s="60"/>
+      <c r="P48" s="60"/>
+      <c r="Q48" s="60"/>
+      <c r="R48" s="60"/>
+      <c r="S48" s="60"/>
+      <c r="T48" s="60"/>
+      <c r="U48" s="60"/>
+      <c r="V48" s="60"/>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" s="29"/>
@@ -2391,11 +2380,11 @@
       <c r="F49" s="29"/>
       <c r="G49" s="29"/>
       <c r="I49" s="29"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="62"/>
-      <c r="N49" s="62"/>
+      <c r="J49" s="60"/>
+      <c r="K49" s="60"/>
+      <c r="L49" s="60"/>
+      <c r="M49" s="60"/>
+      <c r="N49" s="60"/>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" s="29"/>
@@ -2406,11 +2395,11 @@
       <c r="F50" s="29"/>
       <c r="G50" s="29"/>
       <c r="I50" s="29"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="62"/>
-      <c r="N50" s="62"/>
+      <c r="J50" s="60"/>
+      <c r="K50" s="60"/>
+      <c r="L50" s="60"/>
+      <c r="M50" s="60"/>
+      <c r="N50" s="60"/>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" s="29"/>
@@ -2421,11 +2410,11 @@
       <c r="F51" s="29"/>
       <c r="G51" s="29"/>
       <c r="I51" s="29"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="62"/>
-      <c r="N51" s="62"/>
+      <c r="J51" s="60"/>
+      <c r="K51" s="60"/>
+      <c r="L51" s="60"/>
+      <c r="M51" s="60"/>
+      <c r="N51" s="60"/>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" s="29"/>
@@ -2436,11 +2425,11 @@
       <c r="F52" s="29"/>
       <c r="G52" s="29"/>
       <c r="I52" s="29"/>
-      <c r="J52" s="62"/>
-      <c r="K52" s="62"/>
-      <c r="L52" s="62"/>
-      <c r="M52" s="62"/>
-      <c r="N52" s="62"/>
+      <c r="J52" s="60"/>
+      <c r="K52" s="60"/>
+      <c r="L52" s="60"/>
+      <c r="M52" s="60"/>
+      <c r="N52" s="60"/>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" s="29"/>
@@ -2451,11 +2440,11 @@
       <c r="F53" s="29"/>
       <c r="G53" s="29"/>
       <c r="I53" s="29"/>
-      <c r="J53" s="62"/>
-      <c r="K53" s="62"/>
-      <c r="L53" s="62"/>
-      <c r="M53" s="62"/>
-      <c r="N53" s="62"/>
+      <c r="J53" s="60"/>
+      <c r="K53" s="60"/>
+      <c r="L53" s="60"/>
+      <c r="M53" s="60"/>
+      <c r="N53" s="60"/>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" s="29"/>
@@ -2466,11 +2455,11 @@
       <c r="F54" s="29"/>
       <c r="G54" s="29"/>
       <c r="I54" s="29"/>
-      <c r="J54" s="62"/>
-      <c r="K54" s="62"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="62"/>
-      <c r="N54" s="62"/>
+      <c r="J54" s="60"/>
+      <c r="K54" s="60"/>
+      <c r="L54" s="60"/>
+      <c r="M54" s="60"/>
+      <c r="N54" s="60"/>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" s="29"/>
@@ -2481,11 +2470,11 @@
       <c r="F55" s="29"/>
       <c r="G55" s="29"/>
       <c r="I55" s="29"/>
-      <c r="J55" s="62"/>
-      <c r="K55" s="62"/>
-      <c r="L55" s="62"/>
-      <c r="M55" s="62"/>
-      <c r="N55" s="62"/>
+      <c r="J55" s="60"/>
+      <c r="K55" s="60"/>
+      <c r="L55" s="60"/>
+      <c r="M55" s="60"/>
+      <c r="N55" s="60"/>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" s="29"/>
@@ -2496,11 +2485,11 @@
       <c r="F56" s="29"/>
       <c r="G56" s="29"/>
       <c r="I56" s="29"/>
-      <c r="J56" s="62"/>
-      <c r="K56" s="62"/>
-      <c r="L56" s="62"/>
-      <c r="M56" s="62"/>
-      <c r="N56" s="62"/>
+      <c r="J56" s="60"/>
+      <c r="K56" s="60"/>
+      <c r="L56" s="60"/>
+      <c r="M56" s="60"/>
+      <c r="N56" s="60"/>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" s="29"/>
@@ -2511,11 +2500,11 @@
       <c r="F57" s="29"/>
       <c r="G57" s="29"/>
       <c r="I57" s="29"/>
-      <c r="J57" s="62"/>
-      <c r="K57" s="62"/>
-      <c r="L57" s="62"/>
-      <c r="M57" s="62"/>
-      <c r="N57" s="62"/>
+      <c r="J57" s="60"/>
+      <c r="K57" s="60"/>
+      <c r="L57" s="60"/>
+      <c r="M57" s="60"/>
+      <c r="N57" s="60"/>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" s="29"/>
@@ -2526,11 +2515,11 @@
       <c r="F58" s="29"/>
       <c r="G58" s="29"/>
       <c r="I58" s="29"/>
-      <c r="J58" s="62"/>
-      <c r="K58" s="62"/>
-      <c r="L58" s="62"/>
-      <c r="M58" s="62"/>
-      <c r="N58" s="62"/>
+      <c r="J58" s="60"/>
+      <c r="K58" s="60"/>
+      <c r="L58" s="60"/>
+      <c r="M58" s="60"/>
+      <c r="N58" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2569,9 +2558,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -2587,7 +2578,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
         <v>34</v>
@@ -2603,7 +2594,7 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="64" t="s">
         <v>33</v>
       </c>
       <c r="B2">
@@ -2615,15 +2606,15 @@
       </c>
       <c r="D2" s="22">
         <f>(C2-$G$6)^2</f>
-        <v>3.1678147016317255</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>114</v>
+        <v>3.1227230734772888</v>
+      </c>
+      <c r="E2" s="62" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="66" t="s">
-        <v>103</v>
+      <c r="A3" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2634,12 +2625,12 @@
       </c>
       <c r="D3" s="22">
         <f>(C3-$G$6)^2</f>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -2650,13 +2641,13 @@
       </c>
       <c r="D4" s="22">
         <f t="shared" ref="D4:D87" si="1">(C4-$G$6)^2</f>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E4" s="22"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -2667,13 +2658,13 @@
       </c>
       <c r="D5" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E5" s="22"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2684,21 +2675,21 @@
       </c>
       <c r="D6" s="22">
         <f t="shared" si="1"/>
-        <v>0.3449072318012264</v>
+        <v>0.36000094871012145</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="7" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="23">
-        <f>AVERAGE(C2:C113)</f>
-        <v>1.6859003200472844</v>
+        <f>AVERAGE(C2:C143)</f>
+        <v>1.6986130792593568</v>
       </c>
       <c r="H6" s="22"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2709,21 +2700,21 @@
       </c>
       <c r="D7" s="22">
         <f t="shared" si="1"/>
-        <v>0.3449072318012264</v>
+        <v>0.36000094871012145</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="22">
-        <f>SUM(D2:D113)</f>
-        <v>115.92275535188293</v>
+        <f>SUM(D2:D143)</f>
+        <v>151.87370678516143</v>
       </c>
       <c r="H7" s="22"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8">
         <v>6</v>
@@ -2734,21 +2725,21 @@
       </c>
       <c r="D8" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="22">
-        <f>G7/COUNT(D2:D87)</f>
-        <v>1.3966597030347341</v>
+        <f>G7/COUNT(D2:D143)</f>
+        <v>1.1085672028113973</v>
       </c>
       <c r="H8" s="22"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B9">
         <v>11</v>
@@ -2759,7 +2750,7 @@
       </c>
       <c r="D9" s="22">
         <f t="shared" si="1"/>
-        <v>0.5069368127430216</v>
+        <v>0.48899558620073486</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="7" t="s">
@@ -2767,13 +2758,13 @@
       </c>
       <c r="G9" s="23">
         <f>SQRT(G8)</f>
-        <v>1.1818035805643567</v>
+        <v>1.0528851802601256</v>
       </c>
       <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10">
         <v>6</v>
@@ -2784,7 +2775,7 @@
       </c>
       <c r="D10" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E10" s="22"/>
       <c r="F10" s="7"/>
@@ -2793,7 +2784,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11">
         <v>11</v>
@@ -2804,7 +2795,7 @@
       </c>
       <c r="D11" s="22">
         <f t="shared" si="1"/>
-        <v>0.5069368127430216</v>
+        <v>0.48899558620073486</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="7"/>
@@ -2813,7 +2804,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -2824,7 +2815,7 @@
       </c>
       <c r="D12" s="22">
         <f t="shared" si="1"/>
-        <v>0.63841111496572966</v>
+        <v>0.61825757905468293</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="7"/>
@@ -2833,7 +2824,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B13">
         <v>25</v>
@@ -2844,7 +2835,7 @@
       </c>
       <c r="D13" s="22">
         <f t="shared" si="1"/>
-        <v>2.3500138983809427</v>
+        <v>2.3111988156861401</v>
       </c>
       <c r="E13" s="22"/>
       <c r="F13" s="7"/>
@@ -2852,8 +2843,8 @@
       <c r="H13" s="22"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="66" t="s">
-        <v>115</v>
+      <c r="A14" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -2864,7 +2855,7 @@
       </c>
       <c r="D14" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="7"/>
@@ -2873,7 +2864,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B15">
         <v>6</v>
@@ -2884,7 +2875,7 @@
       </c>
       <c r="D15" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="7"/>
@@ -2892,8 +2883,8 @@
       <c r="H15" s="22"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="66" t="s">
-        <v>117</v>
+      <c r="A16" s="64" t="s">
+        <v>116</v>
       </c>
       <c r="B16">
         <v>4</v>
@@ -2904,7 +2895,7 @@
       </c>
       <c r="D16" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="7"/>
@@ -2913,7 +2904,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B17">
         <v>5</v>
@@ -2924,7 +2915,7 @@
       </c>
       <c r="D17" s="22">
         <f t="shared" si="1"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="7"/>
@@ -2932,8 +2923,8 @@
       <c r="H17" s="22"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="66" t="s">
-        <v>119</v>
+      <c r="A18" s="64" t="s">
+        <v>118</v>
       </c>
       <c r="B18">
         <v>5</v>
@@ -2944,7 +2935,7 @@
       </c>
       <c r="D18" s="22">
         <f t="shared" si="1"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="7"/>
@@ -2953,7 +2944,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2964,7 +2955,7 @@
       </c>
       <c r="D19" s="22">
         <f t="shared" si="1"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="7"/>
@@ -2973,7 +2964,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C20" s="22"/>
       <c r="D20" s="22"/>
@@ -2983,7 +2974,7 @@
       <c r="H20" s="22"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="66" t="s">
+      <c r="A21" s="64" t="s">
         <v>33</v>
       </c>
       <c r="B21">
@@ -2995,7 +2986,7 @@
       </c>
       <c r="D21" s="22">
         <f t="shared" si="1"/>
-        <v>4.1114527121911451</v>
+        <v>4.0600597210851825</v>
       </c>
       <c r="E21" s="22"/>
       <c r="F21" s="7"/>
@@ -3003,8 +2994,8 @@
       <c r="H21" s="22"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="66" t="s">
-        <v>103</v>
+      <c r="A22" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3015,7 +3006,7 @@
       </c>
       <c r="D22" s="22">
         <f t="shared" si="1"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
       <c r="E22" s="22"/>
       <c r="F22" s="7"/>
@@ -3024,7 +3015,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B23">
         <v>2</v>
@@ -3035,7 +3026,7 @@
       </c>
       <c r="D23" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="7"/>
@@ -3044,7 +3035,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24">
         <v>3</v>
@@ -3055,10 +3046,10 @@
       </c>
       <c r="D24" s="22">
         <f t="shared" si="1"/>
-        <v>0.3449072318012264</v>
+        <v>0.36000094871012145</v>
       </c>
       <c r="E24" s="22"/>
-      <c r="G24" s="64" t="s">
+      <c r="G24" s="62" t="s">
         <v>43</v>
       </c>
       <c r="H24" s="23" t="s">
@@ -3067,7 +3058,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="26" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25">
         <v>4</v>
@@ -3078,7 +3069,7 @@
       </c>
       <c r="D25" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E25" s="22"/>
       <c r="F25" t="s">
@@ -3086,16 +3077,16 @@
       </c>
       <c r="G25" s="22">
         <f>G6-2*G9</f>
-        <v>-0.67770684108142909</v>
-      </c>
-      <c r="H25" s="67">
+        <v>-0.40715728126089434</v>
+      </c>
+      <c r="H25" s="65">
         <f>EXP(G25)</f>
-        <v>0.50778007870115249</v>
+        <v>0.66553950517668359</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26">
         <v>12</v>
@@ -3106,7 +3097,7 @@
       </c>
       <c r="D26" s="22">
         <f t="shared" si="1"/>
-        <v>0.63841111496572966</v>
+        <v>0.61825757905468293</v>
       </c>
       <c r="E26" s="22"/>
       <c r="F26" t="s">
@@ -3114,16 +3105,16 @@
       </c>
       <c r="G26" s="22">
         <f>G6-G9</f>
-        <v>0.50409673948292766</v>
-      </c>
-      <c r="H26" s="67">
+        <v>0.64572789899923122</v>
+      </c>
+      <c r="H26" s="65">
         <f>EXP(G26)</f>
-        <v>1.6554895066096942</v>
+        <v>1.9073749003767928</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3134,7 +3125,7 @@
       </c>
       <c r="D27" s="22">
         <f t="shared" si="1"/>
-        <v>2.4718009478123713</v>
+        <v>2.4319886581526817</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" t="s">
@@ -3142,16 +3133,16 @@
       </c>
       <c r="G27" s="22">
         <f>G6</f>
-        <v>1.6859003200472844</v>
-      </c>
-      <c r="H27" s="67">
+        <v>1.6986130792593568</v>
+      </c>
+      <c r="H27" s="65">
         <f>EXP(G27)</f>
-        <v>5.3973080501800883</v>
+        <v>5.4663607228267592</v>
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="66" t="s">
-        <v>115</v>
+      <c r="A28" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -3162,7 +3153,7 @@
       </c>
       <c r="D28" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" t="s">
@@ -3170,16 +3161,16 @@
       </c>
       <c r="G28" s="22">
         <f>G6+G9</f>
-        <v>2.8677039006116409</v>
-      </c>
-      <c r="H28" s="67">
+        <v>2.7514982595194821</v>
+      </c>
+      <c r="H28" s="65">
         <f>EXP(G28)</f>
-        <v>17.596568309391781</v>
+        <v>15.666086172236103</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B29">
         <v>6</v>
@@ -3190,7 +3181,7 @@
       </c>
       <c r="D29" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" t="s">
@@ -3198,16 +3189,16 @@
       </c>
       <c r="G29" s="22">
         <f>G6+2*G9</f>
-        <v>4.0495074811759979</v>
-      </c>
-      <c r="H29" s="67">
+        <v>3.8043834397796079</v>
+      </c>
+      <c r="H29" s="65">
         <f>EXP(G29)</f>
-        <v>57.369194677846799</v>
+        <v>44.897559528236314</v>
       </c>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="66" t="s">
-        <v>117</v>
+      <c r="A30" s="64" t="s">
+        <v>116</v>
       </c>
       <c r="B30">
         <v>4</v>
@@ -3218,13 +3209,13 @@
       </c>
       <c r="D30" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E30" s="22"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B31">
         <v>5</v>
@@ -3235,13 +3226,13 @@
       </c>
       <c r="D31" s="22">
         <f t="shared" si="1"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
       <c r="E31" s="22"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="66" t="s">
-        <v>129</v>
+      <c r="A32" s="64" t="s">
+        <v>128</v>
       </c>
       <c r="B32">
         <v>10</v>
@@ -3252,13 +3243,13 @@
       </c>
       <c r="D32" s="22">
         <f t="shared" si="1"/>
-        <v>0.38030010918439877</v>
+        <v>0.3647821933747355</v>
       </c>
       <c r="E32" s="22"/>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="26" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B33">
         <v>16</v>
@@ -3269,13 +3260,13 @@
       </c>
       <c r="D33" s="22">
         <f t="shared" si="1"/>
-        <v>1.1808916834596817</v>
+        <v>1.1534236817152159</v>
       </c>
       <c r="E33" s="22"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="66" t="s">
-        <v>131</v>
+      <c r="A34" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -3286,13 +3277,13 @@
       </c>
       <c r="D34" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E34" s="22"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="26" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B35">
         <v>6</v>
@@ -3303,13 +3294,13 @@
       </c>
       <c r="D35" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E35" s="22"/>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="26" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B36">
         <v>6</v>
@@ -3320,13 +3311,13 @@
       </c>
       <c r="D36" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E36" s="22"/>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -3337,13 +3328,13 @@
       </c>
       <c r="D37" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E37" s="22"/>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C38" s="22"/>
       <c r="D38" s="22"/>
@@ -3362,13 +3353,13 @@
       </c>
       <c r="D39" s="22">
         <f t="shared" si="1"/>
-        <v>4.5913393206710094</v>
+        <v>4.5370206322005506</v>
       </c>
       <c r="E39" s="22"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3379,13 +3370,13 @@
       </c>
       <c r="D40" s="22">
         <f t="shared" si="1"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
       <c r="E40" s="22"/>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41">
         <v>2</v>
@@ -3396,13 +3387,13 @@
       </c>
       <c r="D41" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E41" s="22"/>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -3413,13 +3404,13 @@
       </c>
       <c r="D42" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E42" s="22"/>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3430,13 +3421,13 @@
       </c>
       <c r="D43" s="22">
         <f t="shared" si="1"/>
-        <v>0.3449072318012264</v>
+        <v>0.36000094871012145</v>
       </c>
       <c r="E43" s="22"/>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B44">
         <v>4</v>
@@ -3447,13 +3438,13 @@
       </c>
       <c r="D44" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -3464,13 +3455,13 @@
       </c>
       <c r="D45" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -3481,13 +3472,13 @@
       </c>
       <c r="D46" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B47">
         <v>6</v>
@@ -3498,13 +3489,13 @@
       </c>
       <c r="D47" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E47" s="22"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48">
         <v>6</v>
@@ -3515,13 +3506,13 @@
       </c>
       <c r="D48" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E48" s="22"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B49">
         <v>14</v>
@@ -3532,13 +3523,13 @@
       </c>
       <c r="D49" s="22">
         <f t="shared" si="1"/>
-        <v>0.90850828488856283</v>
+        <v>0.88443538802747379</v>
       </c>
       <c r="E49" s="22"/>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B50">
         <v>6</v>
@@ -3549,13 +3540,13 @@
       </c>
       <c r="D50" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E50" s="22"/>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B51">
         <v>11</v>
@@ -3566,13 +3557,13 @@
       </c>
       <c r="D51" s="22">
         <f t="shared" si="1"/>
-        <v>0.5069368127430216</v>
+        <v>0.48899558620073486</v>
       </c>
       <c r="E51" s="22"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B52">
         <v>12</v>
@@ -3583,13 +3574,13 @@
       </c>
       <c r="D52" s="22">
         <f t="shared" si="1"/>
-        <v>0.63841111496572966</v>
+        <v>0.61825757905468293</v>
       </c>
       <c r="E52" s="22"/>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B53">
         <v>25</v>
@@ -3600,13 +3591,13 @@
       </c>
       <c r="D53" s="22">
         <f t="shared" si="1"/>
-        <v>2.3500138983809427</v>
+        <v>2.3111988156861401</v>
       </c>
       <c r="E53" s="22"/>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B54">
         <v>66</v>
@@ -3617,13 +3608,13 @@
       </c>
       <c r="D54" s="22">
         <f t="shared" si="1"/>
-        <v>6.2687862055801009</v>
+        <v>6.2052885656413208</v>
       </c>
       <c r="E54" s="22"/>
     </row>
     <row r="55" spans="1:5">
-      <c r="A55" s="66" t="s">
-        <v>119</v>
+      <c r="A55" s="64" t="s">
+        <v>118</v>
       </c>
       <c r="B55">
         <v>5</v>
@@ -3634,13 +3625,13 @@
       </c>
       <c r="D55" s="22">
         <f>(C55-$G$6)^2</f>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
       <c r="E55" s="22"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -3651,13 +3642,13 @@
       </c>
       <c r="D56" s="22">
         <f>(C56-$G$6)^2</f>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:5">
-      <c r="A57" s="66" t="s">
-        <v>135</v>
+      <c r="A57" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="B57">
         <v>8</v>
@@ -3668,13 +3659,13 @@
       </c>
       <c r="D57" s="22">
         <f>(C57-$G$6)^2</f>
-        <v>0.1548746931240409</v>
+        <v>0.14503031778954617</v>
       </c>
       <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58">
         <v>1</v>
@@ -3685,13 +3676,13 @@
       </c>
       <c r="D58" s="22">
         <f>(C58-$G$6)^2</f>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
       <c r="E58" s="22"/>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="66" t="s">
-        <v>115</v>
+      <c r="A59" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="B59">
         <v>4</v>
@@ -3702,13 +3693,13 @@
       </c>
       <c r="D59" s="22">
         <f t="shared" ref="D59:D62" si="3">(C59-$G$6)^2</f>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E59" s="22"/>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B60">
         <v>6</v>
@@ -3719,13 +3710,13 @@
       </c>
       <c r="D60" s="22">
         <f t="shared" si="3"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E60" s="22"/>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="66" t="s">
-        <v>117</v>
+      <c r="A61" s="64" t="s">
+        <v>116</v>
       </c>
       <c r="B61">
         <v>4</v>
@@ -3736,13 +3727,13 @@
       </c>
       <c r="D61" s="22">
         <f t="shared" si="3"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -3753,13 +3744,13 @@
       </c>
       <c r="D62" s="22">
         <f t="shared" si="3"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
       <c r="E62" s="22"/>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="22"/>
       <c r="D63" s="22"/>
@@ -3778,13 +3769,13 @@
       </c>
       <c r="D64" s="22">
         <f t="shared" si="1"/>
-        <v>4.5913393206710094</v>
+        <v>4.5370206322005506</v>
       </c>
       <c r="E64" s="22"/>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -3795,13 +3786,13 @@
       </c>
       <c r="D65" s="22">
         <f t="shared" si="1"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
       <c r="E65" s="22"/>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -3812,13 +3803,13 @@
       </c>
       <c r="D66" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E66" s="22"/>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -3829,13 +3820,13 @@
       </c>
       <c r="D67" s="22">
         <f t="shared" si="1"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
       <c r="E67" s="22"/>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B68">
         <v>3</v>
@@ -3846,13 +3837,13 @@
       </c>
       <c r="D68" s="22">
         <f t="shared" si="1"/>
-        <v>0.3449072318012264</v>
+        <v>0.36000094871012145</v>
       </c>
       <c r="E68" s="22"/>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B69">
         <v>4</v>
@@ -3863,13 +3854,13 @@
       </c>
       <c r="D69" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E69" s="22"/>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70">
         <v>4</v>
@@ -3880,13 +3871,13 @@
       </c>
       <c r="D70" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E70" s="22"/>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71">
         <v>2</v>
@@ -3897,13 +3888,13 @@
       </c>
       <c r="D71" s="22">
         <f t="shared" si="1"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
       <c r="E71" s="22"/>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B72">
         <v>6</v>
@@ -3914,13 +3905,13 @@
       </c>
       <c r="D72" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E72" s="22"/>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B73">
         <v>6</v>
@@ -3931,13 +3922,13 @@
       </c>
       <c r="D73" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E73" s="22"/>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B74">
         <v>14</v>
@@ -3948,13 +3939,13 @@
       </c>
       <c r="D74" s="22">
         <f t="shared" si="1"/>
-        <v>0.90850828488856283</v>
+        <v>0.88443538802747379</v>
       </c>
       <c r="E74" s="22"/>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75">
         <v>6</v>
@@ -3965,13 +3956,13 @@
       </c>
       <c r="D75" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E75" s="22"/>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B76">
         <v>11</v>
@@ -3982,13 +3973,13 @@
       </c>
       <c r="D76" s="22">
         <f t="shared" si="1"/>
-        <v>0.5069368127430216</v>
+        <v>0.48899558620073486</v>
       </c>
       <c r="E76" s="22"/>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B77">
         <v>12</v>
@@ -3999,13 +3990,13 @@
       </c>
       <c r="D77" s="22">
         <f t="shared" si="1"/>
-        <v>0.63841111496572966</v>
+        <v>0.61825757905468293</v>
       </c>
       <c r="E77" s="22"/>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B78">
         <v>25</v>
@@ -4016,13 +4007,13 @@
       </c>
       <c r="D78" s="22">
         <f t="shared" si="1"/>
-        <v>2.3500138983809427</v>
+        <v>2.3111988156861401</v>
       </c>
       <c r="E78" s="22"/>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B79">
         <v>66</v>
@@ -4033,13 +4024,13 @@
       </c>
       <c r="D79" s="22">
         <f t="shared" si="1"/>
-        <v>6.2687862055801009</v>
+        <v>6.2052885656413208</v>
       </c>
       <c r="E79" s="22"/>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="66" t="s">
-        <v>119</v>
+      <c r="A80" s="64" t="s">
+        <v>118</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -4050,13 +4041,13 @@
       </c>
       <c r="D80" s="22">
         <f t="shared" si="1"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
       <c r="E80" s="22"/>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -4067,13 +4058,13 @@
       </c>
       <c r="D81" s="22">
         <f t="shared" si="1"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
       <c r="E81" s="22"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="66" t="s">
-        <v>135</v>
+      <c r="A82" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="B82">
         <v>8</v>
@@ -4084,13 +4075,13 @@
       </c>
       <c r="D82" s="22">
         <f t="shared" si="1"/>
-        <v>0.1548746931240409</v>
+        <v>0.14503031778954617</v>
       </c>
       <c r="E82" s="22"/>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4101,13 +4092,13 @@
       </c>
       <c r="D83" s="22">
         <f t="shared" si="1"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
       <c r="E83" s="22"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="66" t="s">
-        <v>115</v>
+      <c r="A84" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="B84">
         <v>4</v>
@@ -4118,13 +4109,13 @@
       </c>
       <c r="D84" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E84" s="22"/>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85">
         <v>6</v>
@@ -4135,13 +4126,13 @@
       </c>
       <c r="D85" s="22">
         <f t="shared" si="1"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
       <c r="E85" s="22"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="66" t="s">
-        <v>117</v>
+      <c r="A86" s="64" t="s">
+        <v>116</v>
       </c>
       <c r="B86">
         <v>4</v>
@@ -4152,13 +4143,13 @@
       </c>
       <c r="D86" s="22">
         <f t="shared" si="1"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
       <c r="E86" s="22"/>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -4169,19 +4160,19 @@
       </c>
       <c r="D87" s="22">
         <f t="shared" si="1"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
       <c r="E87" s="22"/>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C88" s="22"/>
       <c r="D88" s="22"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="66" t="s">
+      <c r="A89" s="64" t="s">
         <v>33</v>
       </c>
       <c r="B89">
@@ -4194,12 +4185,12 @@
       </c>
       <c r="D89" s="22">
         <f t="shared" ref="D89:D113" si="5">(C89-$G$6)^2</f>
-        <v>6.1156437476401697</v>
+        <v>6.052928493075763</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B90">
         <v>4</v>
@@ -4210,12 +4201,12 @@
       </c>
       <c r="D90" s="22">
         <f t="shared" si="5"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="66" t="s">
-        <v>103</v>
+      <c r="A91" s="64" t="s">
+        <v>102</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4226,12 +4217,12 @@
       </c>
       <c r="D91" s="22">
         <f t="shared" si="5"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="26" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92">
         <v>2</v>
@@ -4242,12 +4233,12 @@
       </c>
       <c r="D92" s="22">
         <f t="shared" si="5"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93">
         <v>5</v>
@@ -4258,12 +4249,12 @@
       </c>
       <c r="D93" s="22">
         <f t="shared" si="5"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="26" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94">
         <v>3</v>
@@ -4274,12 +4265,12 @@
       </c>
       <c r="D94" s="22">
         <f t="shared" si="5"/>
-        <v>0.3449072318012264</v>
+        <v>0.36000094871012145</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B95">
         <v>4</v>
@@ -4290,12 +4281,12 @@
       </c>
       <c r="D95" s="22">
         <f t="shared" si="5"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B96">
         <v>4</v>
@@ -4306,12 +4297,12 @@
       </c>
       <c r="D96" s="22">
         <f t="shared" si="5"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -4322,12 +4313,12 @@
       </c>
       <c r="D97" s="22">
         <f t="shared" si="5"/>
-        <v>0.98555879596196816</v>
+        <v>1.0109616734474149</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="26" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B98">
         <v>6</v>
@@ -4338,12 +4329,12 @@
       </c>
       <c r="D98" s="22">
         <f t="shared" si="5"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="26" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B99">
         <v>6</v>
@@ -4354,12 +4345,12 @@
       </c>
       <c r="D99" s="22">
         <f t="shared" si="5"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>14</v>
@@ -4370,12 +4361,12 @@
       </c>
       <c r="D100" s="22">
         <f t="shared" si="5"/>
-        <v>0.90850828488856283</v>
+        <v>0.88443538802747379</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B101">
         <v>6</v>
@@ -4386,12 +4377,12 @@
       </c>
       <c r="D101" s="22">
         <f t="shared" si="5"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="26" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B102">
         <v>11</v>
@@ -4402,12 +4393,12 @@
       </c>
       <c r="D102" s="22">
         <f t="shared" si="5"/>
-        <v>0.5069368127430216</v>
+        <v>0.48899558620073486</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <f>12+18</f>
@@ -4419,12 +4410,12 @@
       </c>
       <c r="D103" s="22">
         <f t="shared" si="5"/>
-        <v>2.942244009584611</v>
+        <v>2.8987933067884244</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="26" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>25</v>
@@ -4435,12 +4426,12 @@
       </c>
       <c r="D104" s="22">
         <f t="shared" si="5"/>
-        <v>2.3500138983809427</v>
+        <v>2.3111988156861401</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B105">
         <v>66</v>
@@ -4451,12 +4442,12 @@
       </c>
       <c r="D105" s="22">
         <f t="shared" si="5"/>
-        <v>6.2687862055801009</v>
+        <v>6.2052885656413208</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="66" t="s">
-        <v>119</v>
+      <c r="A106" s="64" t="s">
+        <v>118</v>
       </c>
       <c r="B106">
         <v>5</v>
@@ -4467,12 +4458,12 @@
       </c>
       <c r="D106" s="22">
         <f t="shared" si="5"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4483,12 +4474,12 @@
       </c>
       <c r="D107" s="22">
         <f t="shared" si="5"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="66" t="s">
-        <v>135</v>
+      <c r="A108" s="64" t="s">
+        <v>134</v>
       </c>
       <c r="B108">
         <v>8</v>
@@ -4499,12 +4490,12 @@
       </c>
       <c r="D108" s="22">
         <f t="shared" si="5"/>
-        <v>0.1548746931240409</v>
+        <v>0.14503031778954617</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="26" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -4515,12 +4506,12 @@
       </c>
       <c r="D109" s="22">
         <f t="shared" si="5"/>
-        <v>2.8422598891355362</v>
+        <v>2.8852863930309538</v>
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="66" t="s">
-        <v>115</v>
+      <c r="A110" s="64" t="s">
+        <v>114</v>
       </c>
       <c r="B110">
         <v>4</v>
@@ -4531,12 +4522,12 @@
       </c>
       <c r="D110" s="22">
         <f t="shared" si="5"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B111">
         <v>6</v>
@@ -4547,12 +4538,12 @@
       </c>
       <c r="D111" s="22">
         <f t="shared" si="5"/>
-        <v>1.1206159465276635E-2</v>
+        <v>8.6762499642007961E-3</v>
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="66" t="s">
-        <v>117</v>
+      <c r="A112" s="64" t="s">
+        <v>116</v>
       </c>
       <c r="B112">
         <v>4</v>
@@ -4563,12 +4554,12 @@
       </c>
       <c r="D112" s="22">
         <f t="shared" si="5"/>
-        <v>8.9763730624803195E-2</v>
+        <v>9.7542981700279335E-2</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B113">
         <v>5</v>
@@ -4579,11 +4570,483 @@
       </c>
       <c r="D113" s="22">
         <f t="shared" si="5"/>
-        <v>5.8464997780047177E-3</v>
+        <v>7.9522103783123271E-3</v>
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="7"/>
+      <c r="A114" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" s="22"/>
+      <c r="D114" s="22"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="B115">
+        <v>80</v>
+      </c>
+      <c r="C115" s="22">
+        <f t="shared" ref="C114:C143" si="6">LN(B115)</f>
+        <v>4.3820266346738812</v>
+      </c>
+      <c r="D115" s="22">
+        <f t="shared" ref="D114:D143" si="7">(C115-$G$6)^2</f>
+        <v>7.2007083093824189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D116" s="22">
+        <f t="shared" si="7"/>
+        <v>9.7542981700279335E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D117" s="22">
+        <f t="shared" si="7"/>
+        <v>2.8852863930309538</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" s="22">
+        <f t="shared" si="6"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="D118" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0109616734474149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="B119">
+        <v>5</v>
+      </c>
+      <c r="C119" s="22">
+        <f t="shared" si="6"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D119" s="22">
+        <f t="shared" si="7"/>
+        <v>7.9522103783123271E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120">
+        <v>6</v>
+      </c>
+      <c r="C120" s="22">
+        <f t="shared" si="6"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D120" s="22">
+        <f t="shared" si="7"/>
+        <v>8.6762499642007961E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="26" t="s">
+        <v>144</v>
+      </c>
+      <c r="B121">
+        <v>5</v>
+      </c>
+      <c r="C121" s="22">
+        <f t="shared" si="6"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D121" s="22">
+        <f t="shared" si="7"/>
+        <v>7.9522103783123271E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="26" t="s">
+        <v>145</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D122" s="22">
+        <f t="shared" si="7"/>
+        <v>9.7542981700279335E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B123">
+        <v>9</v>
+      </c>
+      <c r="C123" s="22">
+        <f t="shared" si="6"/>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="D123" s="22">
+        <f t="shared" si="7"/>
+        <v>0.24861342601445333</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="26" t="s">
+        <v>147</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D124" s="22">
+        <f t="shared" si="7"/>
+        <v>2.8852863930309538</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B125">
+        <v>9</v>
+      </c>
+      <c r="C125" s="22">
+        <f t="shared" si="6"/>
+        <v>2.1972245773362196</v>
+      </c>
+      <c r="D125" s="22">
+        <f t="shared" si="7"/>
+        <v>0.24861342601445333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126" s="22">
+        <f t="shared" si="6"/>
+        <v>0.69314718055994529</v>
+      </c>
+      <c r="D126" s="22">
+        <f t="shared" si="7"/>
+        <v>1.0109616734474149</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="B127">
+        <v>6</v>
+      </c>
+      <c r="C127" s="22">
+        <f t="shared" si="6"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D127" s="22">
+        <f t="shared" si="7"/>
+        <v>8.6762499642007961E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="26" t="s">
+        <v>123</v>
+      </c>
+      <c r="B128">
+        <v>6</v>
+      </c>
+      <c r="C128" s="22">
+        <f t="shared" si="6"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D128" s="22">
+        <f t="shared" si="7"/>
+        <v>8.6762499642007961E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="B129">
+        <v>14</v>
+      </c>
+      <c r="C129" s="22">
+        <f t="shared" si="6"/>
+        <v>2.6390573296152584</v>
+      </c>
+      <c r="D129" s="22">
+        <f t="shared" si="7"/>
+        <v>0.88443538802747379</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="B130">
+        <v>6</v>
+      </c>
+      <c r="C130" s="22">
+        <f t="shared" si="6"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D130" s="22">
+        <f t="shared" si="7"/>
+        <v>8.6762499642007961E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B131">
+        <v>11</v>
+      </c>
+      <c r="C131" s="22">
+        <f t="shared" si="6"/>
+        <v>2.3978952727983707</v>
+      </c>
+      <c r="D131" s="22">
+        <f t="shared" si="7"/>
+        <v>0.48899558620073486</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132">
+        <f>12+18</f>
+        <v>30</v>
+      </c>
+      <c r="C132" s="22">
+        <f t="shared" si="6"/>
+        <v>3.4011973816621555</v>
+      </c>
+      <c r="D132" s="22">
+        <f t="shared" si="7"/>
+        <v>2.8987933067884244</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B133">
+        <v>25</v>
+      </c>
+      <c r="C133" s="22">
+        <f t="shared" si="6"/>
+        <v>3.2188758248682006</v>
+      </c>
+      <c r="D133" s="22">
+        <f t="shared" si="7"/>
+        <v>2.3111988156861401</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134">
+        <v>78</v>
+      </c>
+      <c r="C134" s="22">
+        <f t="shared" si="6"/>
+        <v>4.3567088266895917</v>
+      </c>
+      <c r="D134" s="22">
+        <f t="shared" si="7"/>
+        <v>7.0654730025066996</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B135">
+        <v>5</v>
+      </c>
+      <c r="C135" s="22">
+        <f t="shared" si="6"/>
+        <v>1.6094379124341003</v>
+      </c>
+      <c r="D135" s="22">
+        <f t="shared" si="7"/>
+        <v>7.9522103783123271E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B136">
+        <v>1</v>
+      </c>
+      <c r="C136" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D136" s="22">
+        <f t="shared" si="7"/>
+        <v>2.8852863930309538</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="64" t="s">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>8</v>
+      </c>
+      <c r="C137" s="22">
+        <f t="shared" si="6"/>
+        <v>2.0794415416798357</v>
+      </c>
+      <c r="D137" s="22">
+        <f t="shared" si="7"/>
+        <v>0.14503031778954617</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="26" t="s">
+        <v>119</v>
+      </c>
+      <c r="B138">
+        <v>1</v>
+      </c>
+      <c r="C138" s="22">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="D138" s="22">
+        <f t="shared" si="7"/>
+        <v>2.8852863930309538</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D139" s="22">
+        <f t="shared" si="7"/>
+        <v>9.7542981700279335E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="B140">
+        <v>7</v>
+      </c>
+      <c r="C140" s="22">
+        <f t="shared" si="6"/>
+        <v>1.9459101490553132</v>
+      </c>
+      <c r="D140" s="22">
+        <f t="shared" si="7"/>
+        <v>6.1155840729666157E-2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" s="22">
+        <f t="shared" si="6"/>
+        <v>1.3862943611198906</v>
+      </c>
+      <c r="D141" s="22">
+        <f t="shared" si="7"/>
+        <v>9.7542981700279335E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B142">
+        <v>6</v>
+      </c>
+      <c r="C142" s="22">
+        <f t="shared" si="6"/>
+        <v>1.791759469228055</v>
+      </c>
+      <c r="D142" s="22">
+        <f t="shared" si="7"/>
+        <v>8.6762499642007961E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B143">
+        <v>3</v>
+      </c>
+      <c r="C143" s="22">
+        <f t="shared" si="6"/>
+        <v>1.0986122886681098</v>
+      </c>
+      <c r="D143" s="22">
+        <f t="shared" si="7"/>
+        <v>0.36000094871012145</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="8" type="noConversion"/>
@@ -4597,8 +5060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4606,7 +5069,7 @@
     <col min="1" max="1" width="15.140625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
@@ -4649,34 +5112,27 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="5">
-        <v>200</v>
-      </c>
-      <c r="C4" s="5">
-        <v>157</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4">
         <f t="shared" ref="D4:D9" si="0">B4*C4</f>
-        <v>31400</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E9" si="1">B4^2</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="22">
         <f t="shared" ref="F4:F9" si="2">(C4-C$20-(B$20*B4))^2</f>
-        <v>0.35803547433485899</v>
+        <v>0.20628102030649675</v>
       </c>
       <c r="G4">
         <f t="shared" ref="G4:G9" si="3">(B4-B$15)^2</f>
-        <v>8100</v>
+        <v>2061.16</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H9" si="4">C4^2</f>
-        <v>24649</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -4699,11 +5155,11 @@
       </c>
       <c r="F5" s="22">
         <f t="shared" si="2"/>
-        <v>60.507995162590731</v>
+        <v>347.37812060747081</v>
       </c>
       <c r="G5">
         <f t="shared" si="3"/>
-        <v>2500</v>
+        <v>213.16000000000005</v>
       </c>
       <c r="H5">
         <f t="shared" si="4"/>
@@ -4730,11 +5186,11 @@
       </c>
       <c r="F6" s="22">
         <f t="shared" si="2"/>
-        <v>70.174952969631775</v>
+        <v>21.758499308225765</v>
       </c>
       <c r="G6">
         <f t="shared" si="3"/>
-        <v>1600</v>
+        <v>605.16000000000008</v>
       </c>
       <c r="H6">
         <f t="shared" si="4"/>
@@ -4743,81 +5199,95 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>4</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7" s="22">
         <f t="shared" si="2"/>
-        <v>2839.4921392098895</v>
+        <v>2.880351703425589</v>
       </c>
       <c r="G7">
         <f t="shared" si="3"/>
-        <v>12100</v>
+        <v>1632.1599999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="B8" s="5">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5">
+        <v>43</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2279</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2809</v>
       </c>
       <c r="F8" s="22">
         <f t="shared" si="2"/>
-        <v>2839.4921392098895</v>
+        <v>473.06420641923836</v>
       </c>
       <c r="G8">
         <f t="shared" si="3"/>
-        <v>12100</v>
+        <v>57.760000000000019</v>
       </c>
       <c r="H8">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="5">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5">
+        <v>57</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2223</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1521</v>
       </c>
       <c r="F9" s="22">
         <f t="shared" si="2"/>
-        <v>2839.4921392098895</v>
+        <v>89.751318431119643</v>
       </c>
       <c r="G9">
         <f t="shared" si="3"/>
-        <v>12100</v>
+        <v>40.95999999999998</v>
       </c>
       <c r="H9">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -4841,32 +5311,32 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <f>SUM(B4:B8)</f>
-        <v>330</v>
+        <f>SUM(B4:B9)</f>
+        <v>227</v>
       </c>
       <c r="C14">
-        <f>SUM(C4:C8)</f>
-        <v>330</v>
+        <f>SUM(C4:C9)</f>
+        <v>277</v>
       </c>
       <c r="D14">
         <f t="shared" ref="D14:H14" si="5">SUM(D4:D9)</f>
-        <v>42590</v>
+        <v>15712</v>
       </c>
       <c r="E14">
         <f t="shared" si="5"/>
-        <v>48500</v>
+        <v>12855</v>
       </c>
       <c r="F14" s="18">
         <f t="shared" si="5"/>
-        <v>8649.5174012362259</v>
+        <v>935.03877748978675</v>
       </c>
       <c r="G14" s="18">
         <f t="shared" si="5"/>
-        <v>48500</v>
+        <v>4610.3599999999997</v>
       </c>
       <c r="H14">
         <f t="shared" si="5"/>
-        <v>39674</v>
+        <v>20139</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -4874,12 +5344,12 @@
         <v>4</v>
       </c>
       <c r="B15" s="11">
-        <f>AVERAGE(B4:B8)</f>
-        <v>110</v>
+        <f>AVERAGE(B4:B9)</f>
+        <v>45.4</v>
       </c>
       <c r="C15" s="11">
-        <f>AVERAGE(C4:C8)</f>
-        <v>110</v>
+        <f>AVERAGE(C4:C9)</f>
+        <v>55.4</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4888,7 +5358,7 @@
       </c>
       <c r="B16" s="6">
         <f>COUNTA(B4:B13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4913,17 +5383,17 @@
     <row r="20" spans="1:6">
       <c r="B20" s="20">
         <f>IF(D20&lt;0.5,YSum/XSum,(D14-B16*B15*C15)/(E14-B16*B15*B15))</f>
-        <v>0.51557377049180331</v>
+        <v>1.2302683194727757</v>
       </c>
       <c r="C20" s="20">
         <f>IF(D20&lt;0.5,0,C15-B20*B15)</f>
-        <v>53.286885245901637</v>
-      </c>
-      <c r="D20" s="102">
+        <v>-0.4541817040640197</v>
+      </c>
+      <c r="D20" s="100">
         <f>((n*XiYiSum-(XSum * YSum))/SQRT((n*Xi2Sum-(XSum)^2)*(n*Yi2Sum-(YSum)^2)))^2</f>
-        <v>0.96116153420078321</v>
-      </c>
-      <c r="F20" s="66" t="s">
+        <v>0.80496693305735623</v>
+      </c>
+      <c r="F20" s="64" t="s">
         <v>85</v>
       </c>
     </row>
@@ -4941,9 +5411,9 @@
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="68">
         <f>'C39'!G34</f>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4952,7 +5422,7 @@
       </c>
       <c r="B24" s="9">
         <f>B23*B20+C20</f>
-        <v>67.207377049180323</v>
+        <v>43.835477796955907</v>
       </c>
       <c r="C24" t="s">
         <v>92</v>
@@ -4964,7 +5434,7 @@
       </c>
       <c r="B25" s="12">
         <f>(1/(B16-2))*F14</f>
-        <v>8649.5174012362259</v>
+        <v>311.67959249659555</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4973,7 +5443,7 @@
       </c>
       <c r="B26" s="13">
         <f>SQRT(B25)</f>
-        <v>93.00278168547554</v>
+        <v>17.654449651478675</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4982,7 +5452,7 @@
       </c>
       <c r="B27" s="17">
         <f>TINV(1-pi_pct,n-2)</f>
-        <v>1.9626105046788842</v>
+        <v>1.2497781048019201</v>
       </c>
       <c r="D27" s="16"/>
     </row>
@@ -4992,7 +5462,7 @@
       </c>
       <c r="B28" s="12">
         <f>SQRT((1+(1/B16)+((B23-B15)^2/G14))) * B26*B27</f>
-        <v>221.70791831104279</v>
+        <v>24.362308223024637</v>
       </c>
       <c r="C28" t="s">
         <v>93</v>
@@ -5004,7 +5474,7 @@
       </c>
       <c r="B29" s="9">
         <f>B24+B28</f>
-        <v>288.91529536022313</v>
+        <v>68.197786019980541</v>
       </c>
       <c r="C29" t="s">
         <v>93</v>
@@ -5016,7 +5486,7 @@
       </c>
       <c r="B30" s="9">
         <f>B24-B28</f>
-        <v>-154.50054126186245</v>
+        <v>19.473169573931269</v>
       </c>
       <c r="C30" t="s">
         <v>93</v>
@@ -5045,8 +5515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -5097,34 +5567,27 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="5">
-        <v>200</v>
-      </c>
-      <c r="C4" s="5">
-        <v>186</v>
-      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
       <c r="D4">
         <f t="shared" ref="D4:D13" si="0">B4*C4</f>
-        <v>37200</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <f t="shared" ref="E4:E13" si="1">B4^2</f>
-        <v>40000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="22">
         <f>(C4-C20-(B20*B4))^2</f>
-        <v>42.14350980919086</v>
+        <v>1054.4302133325621</v>
       </c>
       <c r="G4">
         <f>(B4-B15)^2</f>
-        <v>8100</v>
+        <v>2061.16</v>
       </c>
       <c r="H4">
         <f t="shared" ref="H4:H13" si="2">C4^2</f>
-        <v>34596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5147,11 +5610,11 @@
       </c>
       <c r="F5" s="22">
         <f>(C5-C20-(B20*B5))^2</f>
-        <v>7122.2531577532936</v>
+        <v>748.98797923305767</v>
       </c>
       <c r="G5">
         <f>(B5-B15)^2</f>
-        <v>2500</v>
+        <v>213.16000000000005</v>
       </c>
       <c r="H5">
         <f t="shared" si="2"/>
@@ -5178,11 +5641,11 @@
       </c>
       <c r="F6" s="22">
         <f>(C6-C20-(B20*B6))^2</f>
-        <v>8260.1279226014503</v>
+        <v>15295.320297419201</v>
       </c>
       <c r="G6">
         <f>(B6-B15)^2</f>
-        <v>1600</v>
+        <v>605.16000000000008</v>
       </c>
       <c r="H6">
         <f t="shared" si="2"/>
@@ -5191,81 +5654,95 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="B7" s="5">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
+        <v>132</v>
+      </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>660</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F7" s="22">
         <f>IF(B7&gt;0, (C7-C20-(B20*B7))^2,0)</f>
-        <v>0</v>
+        <v>4995.8478355196394</v>
       </c>
       <c r="G7">
         <f>IF(B7&gt;0, (B7-B15)^2, 0)</f>
-        <v>0</v>
+        <v>1632.1599999999999</v>
       </c>
       <c r="H7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17424</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+        <v>139</v>
+      </c>
+      <c r="B8" s="5">
+        <v>53</v>
+      </c>
+      <c r="C8" s="5">
+        <v>195</v>
+      </c>
       <c r="D8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10335</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2809</v>
       </c>
       <c r="F8" s="22">
         <f>IF(B8&gt;0, (C8-C20-(B20*B8))^2, 0)</f>
-        <v>0</v>
+        <v>20519.697119982051</v>
       </c>
       <c r="G8">
         <f>IF(B8&gt;0, (B8-B15)^2, 0)</f>
-        <v>0</v>
+        <v>57.760000000000019</v>
       </c>
       <c r="H8">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>38025</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="26"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="A9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="B9" s="5">
+        <v>39</v>
+      </c>
+      <c r="C9" s="5">
+        <v>179</v>
+      </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6981</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1521</v>
       </c>
       <c r="F9" s="22">
         <f>IF(B9&gt;0, (C9-C20-(B20*B9))^2, 0)</f>
-        <v>0</v>
+        <v>6158.5183353966377</v>
       </c>
       <c r="G9">
         <f>IF(B9&gt;0, (B9-B15)^2, 0)</f>
-        <v>0</v>
+        <v>40.95999999999998</v>
       </c>
       <c r="H9">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>32041</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5370,31 +5847,31 @@
       </c>
       <c r="B14">
         <f t="shared" ref="B14:H14" si="3">SUM(B4:B13)</f>
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="C14">
         <f t="shared" si="3"/>
-        <v>1152</v>
+        <v>1472</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="3"/>
-        <v>100760</v>
+        <v>81536</v>
       </c>
       <c r="E14" s="6">
         <f t="shared" si="3"/>
-        <v>48500</v>
+        <v>12855</v>
       </c>
       <c r="F14" s="21">
         <f t="shared" si="3"/>
-        <v>15424.524590163935</v>
+        <v>48772.801780883143</v>
       </c>
       <c r="G14" s="21">
         <f t="shared" si="3"/>
-        <v>12200</v>
+        <v>4610.3599999999997</v>
       </c>
       <c r="H14" s="6">
         <f t="shared" si="3"/>
-        <v>513032</v>
+        <v>565926</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -5403,11 +5880,11 @@
       </c>
       <c r="B15" s="6">
         <f>AVERAGE(B4:B13)</f>
-        <v>110</v>
+        <v>45.4</v>
       </c>
       <c r="C15" s="6">
         <f>AVERAGE(C4:C13)</f>
-        <v>384</v>
+        <v>294.39999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -5416,7 +5893,7 @@
       </c>
       <c r="B16" s="6">
         <f>COUNTA(B4:B13)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -5441,17 +5918,17 @@
     <row r="20" spans="1:6">
       <c r="B20" s="20">
         <f>IF(D20&lt;0.5,YSum/XSum,(D14-B16*B15*C15)/(E14-B16*B15*B15))</f>
-        <v>-2.1278688524590166</v>
+        <v>5.7693394005962686</v>
       </c>
       <c r="C20" s="20">
         <f>IF(D20&lt;0.5,0,C15-B20*B15)</f>
-        <v>618.06557377049182</v>
+        <v>32.471991212929368</v>
       </c>
       <c r="D20" s="20">
         <f>((n*XiYiSum-(XSum * YSum))/SQRT((n*Xi2Sum-(XSum)^2)*(n*Yi2Sum-(YSum)^2)))^2</f>
-        <v>0.78172018863687409</v>
-      </c>
-      <c r="F20" s="66" t="s">
+        <v>0.64004933598791702</v>
+      </c>
+      <c r="F20" s="64" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5469,18 +5946,18 @@
       <c r="A23" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="70">
+      <c r="B23" s="68">
         <f>'C39'!G34</f>
-        <v>27</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="92">
+      <c r="B24" s="90">
         <f>B23*B20+C20</f>
-        <v>560.61311475409843</v>
+        <v>240.16820963439503</v>
       </c>
       <c r="C24" t="s">
         <v>91</v>
@@ -5490,27 +5967,27 @@
       <c r="A25" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B25" s="71">
+      <c r="B25" s="69">
         <f>(1/(B16-2))*F14</f>
-        <v>15424.524590163935</v>
+        <v>16257.600593627714</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B26" s="71">
+      <c r="B26" s="69">
         <f>SQRT(B25)</f>
-        <v>124.19550954106165</v>
+        <v>127.50529633559429</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B27" s="72">
+      <c r="B27" s="70">
         <f>TINV(1-pi_pct,n-2)</f>
-        <v>1.9626105046788842</v>
+        <v>1.2497781048019201</v>
       </c>
       <c r="D27" s="16"/>
     </row>
@@ -5518,9 +5995,9 @@
       <c r="A28" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="71">
+      <c r="B28" s="69">
         <f>SQRT((1+(1/B16)+((B23-B15)^2/G14))) * B26*B27</f>
-        <v>335.80622443728856</v>
+        <v>175.95129787212977</v>
       </c>
       <c r="C28" t="s">
         <v>91</v>
@@ -5532,7 +6009,7 @@
       </c>
       <c r="B29" s="9">
         <f>B24+B28</f>
-        <v>896.41933919138705</v>
+        <v>416.11950750652477</v>
       </c>
       <c r="C29" t="s">
         <v>91</v>
@@ -5544,7 +6021,7 @@
       </c>
       <c r="B30" s="9">
         <f>B24-B28</f>
-        <v>224.80689031680987</v>
+        <v>64.216911762265255</v>
       </c>
       <c r="C30" t="s">
         <v>91</v>
